--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -13,7 +13,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="180">
   <si>
-    <t>https://es.wiktionary.org/wiki/Wikcionario:Insultos_regionales</t>
+    <t>Insultos</t>
   </si>
   <si>
     <t>Abrazafarolas</t>
@@ -557,15 +557,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <color rgb="FF0000FF"/>
     </font>
     <font/>
     <font>
@@ -587,7 +583,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -595,9 +591,6 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -1697,7 +1690,7 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="3" t="s">
+      <c r="A177" s="2" t="s">
         <v>176</v>
       </c>
     </row>
@@ -1717,9 +1710,6 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink r:id="rId1" ref="A1"/>
-  </hyperlinks>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="207">
   <si>
     <t>Insultos</t>
   </si>
@@ -551,6 +551,87 @@
   </si>
   <si>
     <t>Zullenco</t>
+  </si>
+  <si>
+    <t>Fea</t>
+  </si>
+  <si>
+    <t>fea</t>
+  </si>
+  <si>
+    <t>feo</t>
+  </si>
+  <si>
+    <t>Feo</t>
+  </si>
+  <si>
+    <t>Tonto</t>
+  </si>
+  <si>
+    <t>Tonta</t>
+  </si>
+  <si>
+    <t>Bobo</t>
+  </si>
+  <si>
+    <t>Boba</t>
+  </si>
+  <si>
+    <t>bobo</t>
+  </si>
+  <si>
+    <t>boba</t>
+  </si>
+  <si>
+    <t>baboso</t>
+  </si>
+  <si>
+    <t>babosa</t>
+  </si>
+  <si>
+    <t>estupido</t>
+  </si>
+  <si>
+    <t>estipida</t>
+  </si>
+  <si>
+    <t>Estupida</t>
+  </si>
+  <si>
+    <t>Estupido</t>
+  </si>
+  <si>
+    <t>Puto</t>
+  </si>
+  <si>
+    <t>Puta</t>
+  </si>
+  <si>
+    <t>Putazo</t>
+  </si>
+  <si>
+    <t>Chingado</t>
+  </si>
+  <si>
+    <t>Chingada</t>
+  </si>
+  <si>
+    <t>Idiota</t>
+  </si>
+  <si>
+    <t>idiota</t>
+  </si>
+  <si>
+    <t>mamador</t>
+  </si>
+  <si>
+    <t>mamadora</t>
+  </si>
+  <si>
+    <t>imbecil</t>
+  </si>
+  <si>
+    <t>Imbecil</t>
   </si>
 </sst>
 </file>
@@ -1709,6 +1790,141 @@
         <v>179</v>
       </c>
     </row>
+    <row r="181">
+      <c r="A181" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="212">
   <si>
     <t>Insultos</t>
   </si>
@@ -553,18 +553,6 @@
     <t>Zullenco</t>
   </si>
   <si>
-    <t>Fea</t>
-  </si>
-  <si>
-    <t>fea</t>
-  </si>
-  <si>
-    <t>feo</t>
-  </si>
-  <si>
-    <t>Feo</t>
-  </si>
-  <si>
     <t>Tonto</t>
   </si>
   <si>
@@ -632,6 +620,33 @@
   </si>
   <si>
     <t>Imbecil</t>
+  </si>
+  <si>
+    <t>pendejo</t>
+  </si>
+  <si>
+    <t>pendeja</t>
+  </si>
+  <si>
+    <t>Pendejazo</t>
+  </si>
+  <si>
+    <t>Pendejo</t>
+  </si>
+  <si>
+    <t>puta</t>
+  </si>
+  <si>
+    <t>puto</t>
+  </si>
+  <si>
+    <t>putisimo</t>
+  </si>
+  <si>
+    <t>putisima</t>
+  </si>
+  <si>
+    <t>perra</t>
   </si>
 </sst>
 </file>
@@ -1811,7 +1826,7 @@
       </c>
     </row>
     <row r="185">
-      <c r="A185" s="2" t="s">
+      <c r="A185" s="1" t="s">
         <v>184</v>
       </c>
     </row>
@@ -1821,108 +1836,133 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" s="2" t="s">
+      <c r="A187" s="1" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="188">
-      <c r="A188" s="2" t="s">
+      <c r="A188" s="1" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="189">
-      <c r="A189" s="2" t="s">
+      <c r="A189" s="1" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="190">
-      <c r="A190" s="2" t="s">
+      <c r="A190" s="1" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="191">
-      <c r="A191" s="2" t="s">
+      <c r="A191" s="1" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="192">
-      <c r="A192" s="2" t="s">
+      <c r="A192" s="1" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="193">
-      <c r="A193" s="2" t="s">
+      <c r="A193" s="1" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="194">
-      <c r="A194" s="2" t="s">
+      <c r="A194" s="1" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="195">
-      <c r="A195" s="2" t="s">
+      <c r="A195" s="1" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="196">
-      <c r="A196" s="2" t="s">
+      <c r="A196" s="1" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="197">
-      <c r="A197" s="2" t="s">
+      <c r="A197" s="1" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="2" t="s">
+      <c r="A198" s="1" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="199">
-      <c r="A199" s="2" t="s">
+      <c r="A199" s="1" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="200">
-      <c r="A200" s="2" t="s">
+      <c r="A200" s="1" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="201">
-      <c r="A201" s="2" t="s">
+      <c r="A201" s="1" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="202">
-      <c r="A202" s="2" t="s">
+      <c r="A202" s="1" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="203">
-      <c r="A203" s="2" t="s">
+      <c r="A203" s="1" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="204">
-      <c r="A204" s="2" t="s">
+      <c r="A204" s="1" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="205">
-      <c r="A205" s="2" t="s">
+      <c r="A205" s="1" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="206">
-      <c r="A206" s="2" t="s">
+      <c r="A206" s="1" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="207">
-      <c r="A207" s="2" t="s">
+      <c r="A207" s="1" t="s">
         <v>206</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="s">
+        <v>211</v>
       </c>
     </row>
   </sheetData>
